--- a/TRAIN-INFO.xlsx
+++ b/TRAIN-INFO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>POS Tagging</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>Train</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>rtx5070</t>
+  </si>
+  <si>
+    <t>rtx4060</t>
+  </si>
+  <si>
+    <t>a100</t>
+  </si>
+  <si>
+    <t>rtx5071</t>
   </si>
 </sst>
 </file>
@@ -409,11 +424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,9 +446,10 @@
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -473,8 +489,11 @@
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -514,10 +533,13 @@
       <c r="M2">
         <v>0.71599999999999997</v>
       </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -526,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -537,28 +559,78 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="K4">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="L4">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="M4">
+        <v>0.67630000000000001</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TRAIN-INFO.xlsx
+++ b/TRAIN-INFO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>POS Tagging</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>a100</t>
-  </si>
-  <si>
-    <t>rtx5071</t>
   </si>
 </sst>
 </file>
@@ -426,9 +423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +536,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -559,8 +556,26 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
+      <c r="H3">
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="L3">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.67</v>
+      </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -609,7 +624,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -628,6 +643,24 @@
       </c>
       <c r="G5" t="s">
         <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="I5">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L5">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="M5">
+        <v>0.82220000000000004</v>
       </c>
       <c r="N5" t="s">
         <v>19</v>

--- a/TRAIN-INFO.xlsx
+++ b/TRAIN-INFO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>POS Tagging</t>
   </si>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -664,6 +664,50 @@
       </c>
       <c r="N5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.77259999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="M6">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TRAIN-INFO.xlsx
+++ b/TRAIN-INFO.xlsx
@@ -423,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
     </sheetView>
@@ -432,8 +432,8 @@
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
